--- a/Fixes and updates.xlsx
+++ b/Fixes and updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.20.100.7\MenuNagisa\20210320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34887A28-1ED7-4436-B4A3-05418DE5E338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8B01A2-DA49-4A70-841E-5908E5E503EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B1FEA6AD-29A9-44E9-AD73-45A12E9A5888}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Go back to login page Not working </t>
   </si>
@@ -158,12 +158,15 @@
     <t>The app is showing other guest
  from other group ???</t>
   </si>
+  <si>
+    <t>Errors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +209,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +248,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -251,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,16 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -284,10 +291,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1267,6 +1286,277 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>10771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9526B8A9-2CF1-41CF-972E-2321FE86CFC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="64112775"/>
+          <a:ext cx="8429625" cy="7954621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E19033-4059-42E0-9C72-BF024580D41D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="63893700"/>
+          <a:ext cx="2886075" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1804948F-0A14-4215-AC0B-5138EE60EA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="66741675"/>
+          <a:ext cx="2886075" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6623CB6A-E5C4-4432-AD3D-56CF046217D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="72742425"/>
+          <a:ext cx="5619750" cy="3838575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>343522</xdr:colOff>
+      <xdr:row>485</xdr:row>
+      <xdr:rowOff>20177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4637FB37-B337-47B5-9094-4754DCB1E9E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="77200125"/>
+          <a:ext cx="4458322" cy="8078327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1569,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED1268-3C82-4962-B589-B785A47DE118}">
-  <dimension ref="A2:O299"/>
+  <dimension ref="A2:O360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="L313" sqref="L313"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="K437" sqref="K437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1581,7 +1871,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="11"/>
@@ -1595,12 +1885,12 @@
       <c r="G3" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -1613,41 +1903,41 @@
       </c>
     </row>
     <row r="68" spans="9:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.15">
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.15">
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.15">
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.15">
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
     </row>
     <row r="73" spans="9:11" x14ac:dyDescent="0.15">
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.15">
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
     </row>
     <row r="92" spans="1:2" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
@@ -1660,48 +1950,48 @@
       </c>
     </row>
     <row r="102" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J102" s="10" t="s">
+      <c r="J102" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
     </row>
     <row r="103" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
     </row>
     <row r="104" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
     </row>
     <row r="105" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
     </row>
     <row r="106" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
     </row>
     <row r="107" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
     </row>
     <row r="108" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
     </row>
     <row r="125" spans="1:1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
@@ -1709,72 +1999,72 @@
       </c>
     </row>
     <row r="138" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J138" s="10" t="s">
+      <c r="J138" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K138" s="10"/>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
     </row>
     <row r="139" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
     </row>
     <row r="140" spans="10:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="10"/>
-      <c r="M140" s="10"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
     </row>
     <row r="141" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
     </row>
     <row r="142" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
     </row>
     <row r="143" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10"/>
-      <c r="M143" s="10"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
     </row>
     <row r="144" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
-      <c r="L144" s="10"/>
-      <c r="M144" s="10"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
     </row>
     <row r="145" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
-      <c r="L145" s="10"/>
-      <c r="M145" s="10"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
     </row>
     <row r="146" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
     </row>
     <row r="147" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
     </row>
     <row r="148" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
     </row>
     <row r="178" spans="1:15" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
@@ -1782,16 +2072,16 @@
       </c>
     </row>
     <row r="186" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M186" s="8" t="s">
+      <c r="M186" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N186" s="8"/>
-      <c r="O186" s="8"/>
+      <c r="N186" s="15"/>
+      <c r="O186" s="15"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="M187" s="8"/>
-      <c r="N187" s="8"/>
-      <c r="O187" s="8"/>
+      <c r="M187" s="15"/>
+      <c r="N187" s="15"/>
+      <c r="O187" s="15"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="L188" s="4"/>
@@ -1805,24 +2095,24 @@
       </c>
     </row>
     <row r="209" spans="9:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I209" s="10" t="s">
+      <c r="I209" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J209" s="10"/>
-      <c r="K209" s="10"/>
-      <c r="L209" s="10"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="12"/>
+      <c r="L209" s="12"/>
     </row>
     <row r="210" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
-      <c r="K210" s="10"/>
-      <c r="L210" s="10"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
     </row>
     <row r="211" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I211" s="10"/>
-      <c r="J211" s="10"/>
-      <c r="K211" s="10"/>
-      <c r="L211" s="10"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="12"/>
+      <c r="K211" s="12"/>
+      <c r="L211" s="12"/>
     </row>
     <row r="230" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="D230" s="11" t="s">
@@ -1843,30 +2133,30 @@
       </c>
     </row>
     <row r="241" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K241" s="8" t="s">
+      <c r="K241" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L241" s="9"/>
-      <c r="M241" s="9"/>
-      <c r="N241" s="9"/>
+      <c r="L241" s="16"/>
+      <c r="M241" s="16"/>
+      <c r="N241" s="16"/>
     </row>
     <row r="242" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K242" s="9"/>
-      <c r="L242" s="9"/>
-      <c r="M242" s="9"/>
-      <c r="N242" s="9"/>
+      <c r="K242" s="16"/>
+      <c r="L242" s="16"/>
+      <c r="M242" s="16"/>
+      <c r="N242" s="16"/>
     </row>
     <row r="243" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K243" s="9"/>
-      <c r="L243" s="9"/>
-      <c r="M243" s="9"/>
-      <c r="N243" s="9"/>
+      <c r="K243" s="16"/>
+      <c r="L243" s="16"/>
+      <c r="M243" s="16"/>
+      <c r="N243" s="16"/>
     </row>
     <row r="244" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K244" s="9"/>
-      <c r="L244" s="9"/>
-      <c r="M244" s="9"/>
-      <c r="N244" s="9"/>
+      <c r="K244" s="16"/>
+      <c r="L244" s="16"/>
+      <c r="M244" s="16"/>
+      <c r="N244" s="16"/>
     </row>
     <row r="288" spans="1:1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
@@ -1883,51 +2173,64 @@
       <c r="A292" s="3"/>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="J294" s="14" t="s">
+      <c r="J294" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K294" s="15"/>
-      <c r="L294" s="15"/>
-      <c r="M294" s="15"/>
-      <c r="N294" s="15"/>
+      <c r="K294" s="14"/>
+      <c r="L294" s="14"/>
+      <c r="M294" s="14"/>
+      <c r="N294" s="14"/>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="J295" s="15"/>
-      <c r="K295" s="15"/>
-      <c r="L295" s="15"/>
-      <c r="M295" s="15"/>
-      <c r="N295" s="15"/>
+      <c r="J295" s="14"/>
+      <c r="K295" s="14"/>
+      <c r="L295" s="14"/>
+      <c r="M295" s="14"/>
+      <c r="N295" s="14"/>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="J296" s="15"/>
-      <c r="K296" s="15"/>
-      <c r="L296" s="15"/>
-      <c r="M296" s="15"/>
-      <c r="N296" s="15"/>
+      <c r="J296" s="14"/>
+      <c r="K296" s="14"/>
+      <c r="L296" s="14"/>
+      <c r="M296" s="14"/>
+      <c r="N296" s="14"/>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="J297" s="15"/>
-      <c r="K297" s="15"/>
-      <c r="L297" s="15"/>
-      <c r="M297" s="15"/>
-      <c r="N297" s="15"/>
+      <c r="J297" s="14"/>
+      <c r="K297" s="14"/>
+      <c r="L297" s="14"/>
+      <c r="M297" s="14"/>
+      <c r="N297" s="14"/>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="J298" s="15"/>
-      <c r="K298" s="15"/>
-      <c r="L298" s="15"/>
-      <c r="M298" s="15"/>
-      <c r="N298" s="15"/>
+      <c r="J298" s="14"/>
+      <c r="K298" s="14"/>
+      <c r="L298" s="14"/>
+      <c r="M298" s="14"/>
+      <c r="N298" s="14"/>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="J299" s="15"/>
-      <c r="K299" s="15"/>
-      <c r="L299" s="15"/>
-      <c r="M299" s="15"/>
-      <c r="N299" s="15"/>
+      <c r="J299" s="14"/>
+      <c r="K299" s="14"/>
+      <c r="L299" s="14"/>
+      <c r="M299" s="14"/>
+      <c r="N299" s="14"/>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B359" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" s="8"/>
+      <c r="D359" s="8"/>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B360" s="8"/>
+      <c r="C360" s="8"/>
+      <c r="D360" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B359:D360"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="I68:K74"/>

--- a/Fixes and updates.xlsx
+++ b/Fixes and updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.20.100.7\MenuNagisa\20210320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8B01A2-DA49-4A70-841E-5908E5E503EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24CE934-A5F0-4C2B-BF0E-4087BF16FF5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B1FEA6AD-29A9-44E9-AD73-45A12E9A5888}"/>
   </bookViews>
@@ -1559,6 +1559,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>497</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1E92B7-FC9F-448B-B0AC-2D2465DA6227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="86115525"/>
+          <a:ext cx="16268700" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1861,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED1268-3C82-4962-B589-B785A47DE118}">
   <dimension ref="A2:O360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="K437" sqref="K437"/>
+    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="B491" sqref="B491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
